--- a/Datas/Tables/SkillClips.xlsx
+++ b/Datas/Tables/SkillClips.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>##var</t>
   </si>
@@ -23,6 +23,9 @@
     <t>SkillName</t>
   </si>
   <si>
+    <t>FrameCount</t>
+  </si>
+  <si>
     <t>FrameRate</t>
   </si>
   <si>
@@ -77,6 +80,9 @@
     <t>技能名称</t>
   </si>
   <si>
+    <t>技能总帧数</t>
+  </si>
+  <si>
     <t>帧率</t>
   </si>
   <si>
@@ -95,7 +101,13 @@
     <t>碰撞事件</t>
   </si>
   <si>
-    <t/>
+    <t>技能1</t>
+  </si>
+  <si>
+    <t>45;Custom|</t>
+  </si>
+  <si>
+    <t>0;Assets/GameRes/ZZZModel/Export_fbx/Action/K_Attack_02.FBX;17|17;Assets/GameRes/ZZZModel/Export_fbx/Animation/A01_Idle.anim;120|</t>
   </si>
 </sst>
 </file>
@@ -141,7 +153,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -175,22 +187,25 @@
       <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>13</v>
@@ -204,50 +219,65 @@
       <c r="I2" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="J2" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="0">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" s="0">
         <v>137</v>
+      </c>
+      <c r="E5" s="0">
+        <v>30</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
